--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp7-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp7-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Bmp7</t>
+  </si>
+  <si>
+    <t>Bmpr2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Bmp7</t>
-  </si>
-  <si>
-    <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H2">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I2">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N2">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O2">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P2">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q2">
-        <v>9.236809045128499</v>
+        <v>5.9549046216775</v>
       </c>
       <c r="R2">
-        <v>36.947236180514</v>
+        <v>23.81961848671</v>
       </c>
       <c r="S2">
-        <v>0.1594967494878179</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="T2">
-        <v>0.1039516477711083</v>
+        <v>0.2359735829156887</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H3">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I3">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>24.489942</v>
       </c>
       <c r="N3">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O3">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P3">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q3">
-        <v>4.723509808220999</v>
+        <v>3.22765190589</v>
       </c>
       <c r="R3">
-        <v>28.341058849326</v>
+        <v>19.36591143534</v>
       </c>
       <c r="S3">
-        <v>0.08156328196287775</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="T3">
-        <v>0.07973802837569659</v>
+        <v>0.1918520865636367</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H4">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I4">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N4">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O4">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P4">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q4">
-        <v>3.978163011857666</v>
+        <v>2.735450167095</v>
       </c>
       <c r="R4">
-        <v>23.868978071146</v>
+        <v>16.41270100257</v>
       </c>
       <c r="S4">
-        <v>0.06869299410910776</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="T4">
-        <v>0.06715575663049661</v>
+        <v>0.1625955454769879</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H5">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I5">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N5">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O5">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P5">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q5">
-        <v>6.180447070293749</v>
+        <v>3.4671250683275</v>
       </c>
       <c r="R5">
-        <v>24.72178828117499</v>
+        <v>13.86850027331</v>
       </c>
       <c r="S5">
-        <v>0.1067209696852238</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="T5">
-        <v>0.06955515197729373</v>
+        <v>0.1373909368441856</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H6">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I6">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N6">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O6">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P6">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q6">
-        <v>6.249817990606334</v>
+        <v>2.285949305393333</v>
       </c>
       <c r="R6">
-        <v>37.498907943638</v>
+        <v>13.71569583236</v>
       </c>
       <c r="S6">
-        <v>0.1079188331730125</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="T6">
-        <v>0.1055037852172044</v>
+        <v>0.1358771505744131</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H7">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I7">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N7">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O7">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P7">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q7">
-        <v>4.212195764759833</v>
+        <v>2.293243148215</v>
       </c>
       <c r="R7">
-        <v>25.27317458855899</v>
+        <v>13.75945888929</v>
       </c>
       <c r="S7">
-        <v>0.07273415845268241</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="T7">
-        <v>0.07110648628903916</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.390391</v>
-      </c>
-      <c r="I8">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J8">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>47.890007</v>
-      </c>
-      <c r="N8">
-        <v>95.78001399999999</v>
-      </c>
-      <c r="O8">
-        <v>0.2671069186198896</v>
-      </c>
-      <c r="P8">
-        <v>0.2091536763465643</v>
-      </c>
-      <c r="Q8">
-        <v>6.231942574245665</v>
-      </c>
-      <c r="R8">
-        <v>37.39165544547399</v>
-      </c>
-      <c r="S8">
-        <v>0.1076101691320717</v>
-      </c>
-      <c r="T8">
-        <v>0.105202028575456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.390391</v>
-      </c>
-      <c r="I9">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J9">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>24.489942</v>
-      </c>
-      <c r="N9">
-        <v>73.469826</v>
-      </c>
-      <c r="O9">
-        <v>0.136592858397365</v>
-      </c>
-      <c r="P9">
-        <v>0.1604351844054063</v>
-      </c>
-      <c r="Q9">
-        <v>3.186884315773999</v>
-      </c>
-      <c r="R9">
-        <v>28.681958841966</v>
-      </c>
-      <c r="S9">
-        <v>0.0550295764344872</v>
-      </c>
-      <c r="T9">
-        <v>0.08069715602970975</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.390391</v>
-      </c>
-      <c r="I10">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J10">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>20.62554866666667</v>
-      </c>
-      <c r="N10">
-        <v>61.876646</v>
-      </c>
-      <c r="O10">
-        <v>0.1150391719340928</v>
-      </c>
-      <c r="P10">
-        <v>0.1351192952518772</v>
-      </c>
-      <c r="Q10">
-        <v>2.684009523176222</v>
-      </c>
-      <c r="R10">
-        <v>24.156085708586</v>
-      </c>
-      <c r="S10">
-        <v>0.04634617782498501</v>
-      </c>
-      <c r="T10">
-        <v>0.06796353862138063</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.390391</v>
-      </c>
-      <c r="I11">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J11">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>32.0437125</v>
-      </c>
-      <c r="N11">
-        <v>64.087425</v>
-      </c>
-      <c r="O11">
-        <v>0.1787240771757799</v>
-      </c>
-      <c r="P11">
-        <v>0.1399469470356803</v>
-      </c>
-      <c r="Q11">
-        <v>4.169858988862499</v>
-      </c>
-      <c r="R11">
-        <v>25.019153933175</v>
-      </c>
-      <c r="S11">
-        <v>0.07200310749055604</v>
-      </c>
-      <c r="T11">
-        <v>0.07039179505838657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.390391</v>
-      </c>
-      <c r="I12">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J12">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>32.40337933333334</v>
-      </c>
-      <c r="N12">
-        <v>97.21013800000001</v>
-      </c>
-      <c r="O12">
-        <v>0.1807301219771816</v>
-      </c>
-      <c r="P12">
-        <v>0.2122766211002732</v>
-      </c>
-      <c r="Q12">
-        <v>4.216662553773111</v>
-      </c>
-      <c r="R12">
-        <v>37.949962983958</v>
-      </c>
-      <c r="S12">
-        <v>0.07281128880416908</v>
-      </c>
-      <c r="T12">
-        <v>0.1067728358830688</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.390391</v>
-      </c>
-      <c r="I13">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J13">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>21.83893633333333</v>
-      </c>
-      <c r="N13">
-        <v>65.51680899999999</v>
-      </c>
-      <c r="O13">
-        <v>0.1218068518956913</v>
-      </c>
-      <c r="P13">
-        <v>0.1430682758601985</v>
-      </c>
-      <c r="Q13">
-        <v>2.841908064702111</v>
-      </c>
-      <c r="R13">
-        <v>25.577172582319</v>
-      </c>
-      <c r="S13">
-        <v>0.04907269344300882</v>
-      </c>
-      <c r="T13">
-        <v>0.07196178957115934</v>
+        <v>0.136310697625088</v>
       </c>
     </row>
   </sheetData>
